--- a/pcb/PaprControlPCB/PCBA Manufacturing Files/PaprControl v0.3 CPL JLCPCB.xlsx
+++ b/pcb/PaprControlPCB/PCBA Manufacturing Files/PaprControl v0.3 CPL JLCPCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a412b16b128866ae/GitHub/PAPRA-PCB/pcb/PaprControlPCB/PCBA Manufacturing Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{4EAC0F8A-07BE-4852-87F9-A746B6FDCC70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8CEDA938-A49D-4F9E-A811-108D4577123C}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{4EAC0F8A-07BE-4852-87F9-A746B6FDCC70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F057AE5B-CAC6-4041-A2D5-74D122383343}"/>
   <bookViews>
-    <workbookView xWindow="14002" yWindow="1005" windowWidth="14798" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15608" yWindow="727" windowWidth="13192" windowHeight="12496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Designator</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>U2</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="14.25"/>
@@ -513,10 +516,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>1.1100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="4">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>28</v>
@@ -533,10 +536,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>2.19</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C3" s="4">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>28</v>
@@ -553,10 +556,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>-3.68</v>
+        <v>-3.7</v>
       </c>
       <c r="C4" s="4">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>28</v>
@@ -573,10 +576,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="4">
-        <v>-9.49</v>
+        <v>12.4</v>
       </c>
       <c r="C5" s="4">
-        <v>17.84</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>28</v>
@@ -593,10 +596,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>9.9499999999999993</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
-        <v>-3.23</v>
+        <v>-3.2</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>28</v>
@@ -610,19 +613,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4">
-        <v>-9.65</v>
+        <v>3.7</v>
       </c>
       <c r="C7" s="4">
-        <v>11.3</v>
+        <v>6.5</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="5">
-        <v>180</v>
+      <c r="E7" s="4">
+        <v>270</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -630,13 +633,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4">
-        <v>-9.65</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="C8" s="4">
-        <v>4.95</v>
+        <v>11.3</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>28</v>
@@ -650,13 +653,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4">
-        <v>-9.65</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="C9" s="4">
-        <v>-1.4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>28</v>
@@ -670,13 +673,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
-        <v>-9.65</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="C10" s="4">
-        <v>-7.75</v>
+        <v>-1.4</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>28</v>
@@ -690,19 +693,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4">
-        <v>-1.91</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="C11" s="4">
-        <v>-20.71</v>
+        <v>-7.7</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -710,18 +713,18 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4">
-        <v>11.46</v>
+        <v>-1.9</v>
       </c>
       <c r="C12" s="4">
-        <v>2.82</v>
+        <v>-20.7</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>0</v>
       </c>
       <c r="F12" s="2"/>
@@ -730,19 +733,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4">
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="C13" s="4">
-        <v>11.55</v>
+        <v>2.8</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="4">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -750,19 +753,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4">
-        <v>7.43</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4">
-        <v>11.55</v>
+        <v>11.6</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="4">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -770,13 +773,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B15" s="4">
-        <v>6.34</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C15" s="4">
-        <v>7.5</v>
+        <v>11.6</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>28</v>
@@ -790,19 +793,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>-5.6</v>
+        <v>6.3</v>
       </c>
       <c r="C16" s="4">
-        <v>0.54</v>
+        <v>7.5</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="4">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -810,13 +813,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>-5.6</v>
       </c>
       <c r="C17" s="4">
-        <v>-1.84</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>28</v>
@@ -830,13 +833,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4">
         <v>-5.6</v>
       </c>
       <c r="C18" s="4">
-        <v>-4.09</v>
+        <v>-1.8</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>28</v>
@@ -850,13 +853,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4">
         <v>-5.6</v>
       </c>
       <c r="C19" s="4">
-        <v>-6.47</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>28</v>
@@ -870,19 +873,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>12.27</v>
+        <v>-5.6</v>
       </c>
       <c r="C20" s="4">
-        <v>7.91</v>
+        <v>-6.5</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="4">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -890,13 +893,13 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>11.89</v>
+        <v>12.3</v>
       </c>
       <c r="C21" s="4">
-        <v>5.71</v>
+        <v>7.9</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>28</v>
@@ -910,19 +913,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>-1.79</v>
+        <v>11.9</v>
       </c>
       <c r="C22" s="4">
-        <v>-18.170000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -930,19 +933,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3">
-        <v>-1.7</v>
-      </c>
-      <c r="C23" s="3">
-        <v>-15.09</v>
+        <v>24</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-1.8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-18.2</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="3">
-        <v>180</v>
+      <c r="E23" s="4">
+        <v>0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -950,35 +953,55 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3">
-        <v>-3.71</v>
+        <v>-1.7</v>
       </c>
       <c r="C24" s="3">
-        <v>5.8</v>
+        <v>-15.1</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-3.7</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3">
-        <v>1.87</v>
-      </c>
-      <c r="C25" s="3">
-        <v>-3.12</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="B26" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-3.1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="6">
         <v>270</v>
       </c>
     </row>
